--- a/Zodo.Assets.Website/wwwroot/report/第二次盘点-盘点明细.xlsx
+++ b/Zodo.Assets.Website/wwwroot/report/第二次盘点-盘点明细.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>盘点明细</t>
   </si>
@@ -65,27 +65,60 @@
     <t>盘点结果</t>
   </si>
   <si>
+    <t>测试</t>
+  </si>
+  <si>
+    <t>全新</t>
+  </si>
+  <si>
+    <t>使用中</t>
+  </si>
+  <si>
+    <t>经理室</t>
+  </si>
+  <si>
+    <t>手动盘点</t>
+  </si>
+  <si>
+    <t>2018-12-06 02:41</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>盘点成功</t>
+  </si>
+  <si>
+    <t>测试测试</t>
+  </si>
+  <si>
+    <t>维修</t>
+  </si>
+  <si>
+    <t>助理室</t>
+  </si>
+  <si>
+    <t>江波</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>未盘点</t>
+  </si>
+  <si>
     <t>DZ008</t>
   </si>
   <si>
     <t>测试啊测试</t>
   </si>
   <si>
-    <t>经理室</t>
-  </si>
-  <si>
     <t>李经理</t>
   </si>
   <si>
     <t>测试啊而测试</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>未盘点</t>
-  </si>
-  <si>
     <t>测试测试测试</t>
   </si>
   <si>
@@ -95,9 +128,6 @@
     <t>测试擦测</t>
   </si>
   <si>
-    <t>测试</t>
-  </si>
-  <si>
     <t>测试你自产</t>
   </si>
   <si>
@@ -122,6 +152,9 @@
     <t>扬天DAC</t>
   </si>
   <si>
+    <t>1500*750*800</t>
+  </si>
+  <si>
     <t>132456</t>
   </si>
   <si>
@@ -140,16 +173,13 @@
     <t>测试啊测试啊侧</t>
   </si>
   <si>
-    <t>助理室</t>
-  </si>
-  <si>
-    <t>江波</t>
-  </si>
-  <si>
     <t>DZ001</t>
   </si>
   <si>
     <t>联想电脑</t>
+  </si>
+  <si>
+    <t>1500-750-810</t>
   </si>
 </sst>
 </file>
@@ -275,7 +305,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -356,68 +386,84 @@
       </c>
     </row>
     <row r="3" ht="20" customHeight="1">
-      <c r="A3" s="7" t="s">
-        <v>17</v>
-      </c>
+      <c r="A3" s="7"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
+      <c r="H3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="J3" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" s="6" t="s">
         <v>20</v>
       </c>
+      <c r="K3" s="6"/>
       <c r="L3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="N3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
+      <c r="O3" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="P3" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1">
-      <c r="A4" s="7"/>
+      <c r="A4" s="7" t="s">
+        <v>25</v>
+      </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
+      <c r="H4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>28</v>
+      </c>
       <c r="L4" s="6" t="s">
         <v>25</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
       <c r="P4" s="8" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" ht="20" customHeight="1">
-      <c r="A5" s="7"/>
+      <c r="A5" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -426,26 +472,28 @@
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
       <c r="J5" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" s="6"/>
+        <v>20</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="L5" s="6" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
       <c r="P5" s="8" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1">
       <c r="A6" s="7"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -453,29 +501,25 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
-      <c r="J6" s="6" t="s">
-        <v>19</v>
-      </c>
+      <c r="J6" s="6"/>
       <c r="K6" s="6"/>
       <c r="L6" s="6" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
       <c r="P6" s="8" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" ht="20" customHeight="1">
-      <c r="A7" s="7" t="s">
-        <v>29</v>
-      </c>
+      <c r="A7" s="7"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -483,61 +527,57 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
+      <c r="J7" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="K7" s="6"/>
       <c r="L7" s="6" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
       <c r="P7" s="8" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" ht="20" customHeight="1">
-      <c r="A8" s="7" t="s">
-        <v>32</v>
-      </c>
+      <c r="A8" s="7"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>35</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
       <c r="F8" s="6"/>
-      <c r="G8" s="6" t="s">
-        <v>36</v>
-      </c>
+      <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
+      <c r="J8" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="K8" s="6"/>
       <c r="L8" s="6" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
       <c r="P8" s="8" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" ht="20" customHeight="1">
       <c r="A9" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
@@ -545,63 +585,63 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
-      <c r="J9" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>20</v>
-      </c>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
       <c r="L9" s="6" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="N9" s="6"/>
       <c r="O9" s="6"/>
       <c r="P9" s="8" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" ht="20" customHeight="1">
       <c r="A10" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
+        <v>43</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>47</v>
+      </c>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
-      <c r="J10" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="K10" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
       <c r="L10" s="6" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
       <c r="P10" s="8" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" ht="20" customHeight="1">
       <c r="A11" s="7" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
@@ -610,21 +650,87 @@
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
       <c r="P11" s="8" t="s">
-        <v>23</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" ht="20" customHeight="1">
+      <c r="A12" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" ht="20" customHeight="1">
+      <c r="A13" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="M13" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="8" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
